--- a/src/main/resources/modele_import_etudiant.xlsx
+++ b/src/main/resources/modele_import_etudiant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyx\IdeaProjects\Projet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BD598-6822-4F71-93BA-8453C333693C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2BA336-AD82-4984-A92B-B605F8C47332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3830" yWindow="3060" windowWidth="14400" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>prenom_etudiant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,15 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Informatique, Décision, Données</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>En Alternance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Initiale</t>
+    <t>Initiale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +394,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -434,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,10 +441,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
